--- a/Complete-spreadsheets/TASK/F8-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/F8-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5546A49C-FA7A-4A24-BFCB-8A54932D8DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FFE79A-14E2-469A-920F-455E6C028B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>315.3240559249399</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42.937672070747851</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.2114895281694684</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.9251627106582672</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.3006472398661528</v>
+      <c r="B2" s="4">
+        <v>196.04048660893491</v>
+      </c>
+      <c r="C2" s="4">
+        <v>28.454368608860179</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.930097488226068</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.6405821942009209</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.52569624459777</v>
       </c>
       <c r="G2">
-        <v>368.69902747438152</v>
+        <v>233.59123114482</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -538,22 +538,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>196.04048660893491</v>
+        <v>1454.250695984699</v>
       </c>
       <c r="C3" s="4">
-        <v>28.454368608860179</v>
+        <v>93.672485991924788</v>
       </c>
       <c r="D3" s="4">
-        <v>3.930097488226068</v>
+        <v>9.5217840850247768</v>
       </c>
       <c r="E3" s="4">
-        <v>2.6405821942009209</v>
+        <v>3.7597762084417861</v>
       </c>
       <c r="F3" s="4">
-        <v>2.52569624459777</v>
+        <v>3.3315651509743889</v>
       </c>
       <c r="G3">
-        <v>233.59123114482</v>
+        <v>1564.536307421065</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -575,23 +575,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>76.590501003727113</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14.805590768794371</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.8639357310845828</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2.945717542927258</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2.6916643144493602</v>
+      <c r="B4" s="4">
+        <v>97.370186913156203</v>
+      </c>
+      <c r="C4" s="4">
+        <v>112.2196251765213</v>
+      </c>
+      <c r="D4" s="4">
+        <v>15.09900638377389</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.2153415453943932</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8.5760843740924848</v>
       </c>
       <c r="G4">
-        <v>101.89740936098271</v>
+        <v>240.48024439293829</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -602,8 +602,8 @@
       <c r="J4">
         <v>14</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -614,22 +614,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>1454.250695984699</v>
+        <v>33.292099251373372</v>
       </c>
       <c r="C5" s="4">
-        <v>93.672485991924788</v>
+        <v>116.78482478326831</v>
       </c>
       <c r="D5" s="4">
-        <v>9.5217840850247768</v>
+        <v>10.187209739106279</v>
       </c>
       <c r="E5" s="4">
-        <v>3.7597762084417861</v>
+        <v>5.4343151768878037</v>
       </c>
       <c r="F5" s="4">
-        <v>3.3315651509743889</v>
+        <v>9.5545006227522897</v>
       </c>
       <c r="G5">
-        <v>1564.536307421065</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -651,23 +651,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>132.69879042232861</v>
-      </c>
-      <c r="C6" s="3">
-        <v>13.725287902690591</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.8895867629498579</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.2418838752109429</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.950758365545135</v>
+      <c r="B6" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C6" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G6">
-        <v>157.5063073287252</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -689,23 +689,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>69.782500364035386</v>
-      </c>
-      <c r="C7" s="3">
-        <v>34.367511524734297</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.4807686910452111</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3.981053323340868</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.6992684097579174</v>
+      <c r="B7" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C7" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G7">
-        <v>116.3111023129137</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>28</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -727,23 +727,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>407.3207073862323</v>
-      </c>
-      <c r="C8" s="3">
-        <v>106.1640686322181</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10.81116850528789</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.1882162476233624</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.7452092700618564</v>
+      <c r="B8" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C8" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G8">
-        <v>533.22937004142364</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -765,23 +765,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>175.724132283806</v>
-      </c>
-      <c r="C9" s="3">
-        <v>54.06656535872861</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8.3416617152365085</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6.4208251678317367</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.6888551258791882</v>
+      <c r="B9" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C9" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F9" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G9">
-        <v>250.242039651482</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
@@ -803,23 +803,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>348.80930506818783</v>
-      </c>
-      <c r="C10" s="3">
-        <v>139.19695523156301</v>
-      </c>
-      <c r="D10" s="3">
-        <v>25.18532890894457</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.6596311897041218</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.117400537973432</v>
+      <c r="B10" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C10" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G10">
-        <v>525.96862093637287</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -842,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>97.370186913156203</v>
+        <v>33.292099251373372</v>
       </c>
       <c r="C11" s="4">
-        <v>112.2196251765213</v>
+        <v>116.78482478326831</v>
       </c>
       <c r="D11" s="4">
-        <v>15.09900638377389</v>
+        <v>10.187209739106279</v>
       </c>
       <c r="E11" s="4">
-        <v>7.2153415453943932</v>
+        <v>5.4343151768878037</v>
       </c>
       <c r="F11" s="4">
-        <v>8.5760843740924848</v>
+        <v>9.5545006227522897</v>
       </c>
       <c r="G11">
-        <v>240.48024439293829</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -879,23 +879,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>29.37944880111457</v>
-      </c>
-      <c r="C12" s="3">
-        <v>9.7780742876675397</v>
-      </c>
-      <c r="D12" s="3">
-        <v>5.3717826737269778</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.6708893390648569</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9.1901119562367271</v>
+      <c r="B12" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C12" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F12" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G12">
-        <v>60.390307057810681</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -917,23 +917,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>144.85666601340279</v>
-      </c>
-      <c r="C13" s="3">
-        <v>39.683677209039978</v>
-      </c>
-      <c r="D13" s="3">
-        <v>17.464195707213641</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15.417820806864979</v>
-      </c>
-      <c r="F13" s="3">
-        <v>9.464870020677191</v>
+      <c r="B13" s="4">
+        <v>33.292099251373372</v>
+      </c>
+      <c r="C13" s="4">
+        <v>116.78482478326831</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10.187209739106279</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5.4343151768878037</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.5545006227522897</v>
       </c>
       <c r="G13">
-        <v>226.88722975719861</v>
+        <v>175.25294957338801</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -955,23 +955,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>723.68132135803671</v>
-      </c>
-      <c r="C14" s="3">
-        <v>133.83411637174831</v>
-      </c>
-      <c r="D14" s="3">
-        <v>12.89155959926366</v>
-      </c>
-      <c r="E14" s="3">
-        <v>10.78545995805105</v>
-      </c>
-      <c r="F14" s="3">
-        <v>9.4752244419060219</v>
+      <c r="B14" s="4">
+        <v>160.2151300891073</v>
+      </c>
+      <c r="C14" s="4">
+        <v>276.13412610140563</v>
+      </c>
+      <c r="D14" s="4">
+        <v>19.243527318728649</v>
+      </c>
+      <c r="E14" s="4">
+        <v>12.10218470216498</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10.080760143540131</v>
       </c>
       <c r="G14">
-        <v>890.66768172900584</v>
+        <v>477.77572835494658</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -997,22 +997,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>33.292099251373372</v>
+        <v>32.452048212678307</v>
       </c>
       <c r="C15" s="4">
-        <v>116.78482478326831</v>
+        <v>68.482876607106107</v>
       </c>
       <c r="D15" s="4">
-        <v>10.187209739106279</v>
+        <v>15.395089877015391</v>
       </c>
       <c r="E15" s="4">
-        <v>5.4343151768878037</v>
+        <v>7.3219619750343092</v>
       </c>
       <c r="F15" s="4">
-        <v>9.5545006227522897</v>
+        <v>12.40338646826083</v>
       </c>
       <c r="G15">
-        <v>175.25294957338801</v>
+        <v>136.0553631400949</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>33.292099251373372</v>
+        <v>57.689738980107478</v>
       </c>
       <c r="C16" s="4">
-        <v>116.78482478326831</v>
+        <v>121.19912357942491</v>
       </c>
       <c r="D16" s="4">
-        <v>10.187209739106279</v>
+        <v>8.9588634853399611</v>
       </c>
       <c r="E16" s="4">
-        <v>5.4343151768878037</v>
+        <v>11.524666583819061</v>
       </c>
       <c r="F16" s="4">
-        <v>9.5545006227522897</v>
+        <v>15.200193450373799</v>
       </c>
       <c r="G16">
-        <v>175.25294957338801</v>
+        <v>214.57258607906519</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1076,22 +1076,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>33.292099251373372</v>
+        <v>79.67316705498196</v>
       </c>
       <c r="C17" s="4">
-        <v>116.78482478326831</v>
+        <v>115.4022631508663</v>
       </c>
       <c r="D17" s="4">
-        <v>10.187209739106279</v>
+        <v>8.1958046045361428</v>
       </c>
       <c r="E17" s="4">
-        <v>5.4343151768878037</v>
+        <v>8.9891551959992171</v>
       </c>
       <c r="F17" s="4">
-        <v>9.5545006227522897</v>
+        <v>16.081807763586109</v>
       </c>
       <c r="G17">
-        <v>175.25294957338801</v>
+        <v>228.34219776996969</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1114,22 +1114,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>33.292099251373372</v>
+        <v>159.40822531329979</v>
       </c>
       <c r="C18" s="4">
-        <v>116.78482478326831</v>
+        <v>77.154702877833969</v>
       </c>
       <c r="D18" s="4">
-        <v>10.187209739106279</v>
+        <v>18.221654473439472</v>
       </c>
       <c r="E18" s="4">
-        <v>5.4343151768878037</v>
+        <v>12.47355442863728</v>
       </c>
       <c r="F18" s="4">
-        <v>9.5545006227522897</v>
+        <v>18.513648531535392</v>
       </c>
       <c r="G18">
-        <v>175.25294957338801</v>
+        <v>285.77178562474592</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>33.292099251373372</v>
+        <v>62.755461224925348</v>
       </c>
       <c r="C19" s="4">
-        <v>116.78482478326831</v>
+        <v>33.563316937665427</v>
       </c>
       <c r="D19" s="4">
-        <v>10.187209739106279</v>
+        <v>16.0328120658315</v>
       </c>
       <c r="E19" s="4">
-        <v>5.4343151768878037</v>
+        <v>15.76197093200631</v>
       </c>
       <c r="F19" s="4">
-        <v>9.5545006227522897</v>
+        <v>25.166954931972061</v>
       </c>
       <c r="G19">
-        <v>175.25294957338801</v>
+        <v>153.2805160924006</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1190,22 +1190,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>33.292099251373372</v>
+        <v>42.03770249531825</v>
       </c>
       <c r="C20" s="4">
-        <v>116.78482478326831</v>
+        <v>100.7005666510161</v>
       </c>
       <c r="D20" s="4">
-        <v>10.187209739106279</v>
+        <v>17.894691803479891</v>
       </c>
       <c r="E20" s="4">
-        <v>5.4343151768878037</v>
+        <v>16.793008883399111</v>
       </c>
       <c r="F20" s="4">
-        <v>9.5545006227522897</v>
+        <v>35.815288929550441</v>
       </c>
       <c r="G20">
-        <v>175.25294957338801</v>
+        <v>213.24125876276381</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1228,22 +1228,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>33.292099251373372</v>
+        <v>20.343298016657979</v>
       </c>
       <c r="C21" s="4">
-        <v>116.78482478326831</v>
+        <v>92.321174849650873</v>
       </c>
       <c r="D21" s="4">
-        <v>10.187209739106279</v>
+        <v>10.932923301311449</v>
       </c>
       <c r="E21" s="4">
-        <v>5.4343151768878037</v>
+        <v>17.86516688425387</v>
       </c>
       <c r="F21" s="4">
-        <v>9.5545006227522897</v>
+        <v>52.138818393339371</v>
       </c>
       <c r="G21">
-        <v>175.25294957338801</v>
+        <v>193.6013814452136</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>33.292099251373372</v>
+        <v>1673.2955500138751</v>
       </c>
       <c r="C22" s="4">
-        <v>116.78482478326831</v>
+        <v>158.4727096999182</v>
       </c>
       <c r="D22" s="4">
-        <v>10.187209739106279</v>
+        <v>210.7250693911748</v>
       </c>
       <c r="E22" s="4">
-        <v>5.4343151768878037</v>
+        <v>107.1680604997597</v>
       </c>
       <c r="F22" s="4">
-        <v>9.5545006227522897</v>
+        <v>78.294785196541582</v>
       </c>
       <c r="G22">
-        <v>175.25294957338801</v>
+        <v>2227.9561748012688</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1304,22 +1304,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>33.292099251373372</v>
+        <v>5577.5826234258602</v>
       </c>
       <c r="C23" s="4">
-        <v>116.78482478326831</v>
+        <v>1211.8704362071101</v>
       </c>
       <c r="D23" s="4">
-        <v>10.187209739106279</v>
+        <v>533.52389198128208</v>
       </c>
       <c r="E23" s="4">
-        <v>5.4343151768878037</v>
+        <v>484.95053807455372</v>
       </c>
       <c r="F23" s="4">
-        <v>9.5545006227522897</v>
+        <v>291.70501162239952</v>
       </c>
       <c r="G23">
-        <v>175.25294957338801</v>
+        <v>8099.6325013112046</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1341,23 +1341,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>160.2151300891073</v>
-      </c>
-      <c r="C24" s="4">
-        <v>276.13412610140563</v>
-      </c>
-      <c r="D24" s="4">
-        <v>19.243527318728649</v>
-      </c>
-      <c r="E24" s="4">
-        <v>12.10218470216498</v>
-      </c>
-      <c r="F24" s="4">
-        <v>10.080760143540131</v>
+      <c r="B24" s="3">
+        <v>315.3240559249399</v>
+      </c>
+      <c r="C24" s="3">
+        <v>42.937672070747851</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.2114895281694684</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2.9251627106582672</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2.3006472398661528</v>
       </c>
       <c r="G24">
-        <v>477.77572835494658</v>
+        <v>368.69902747438152</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1380,22 +1380,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>1823.859777115289</v>
+        <v>76.590501003727113</v>
       </c>
       <c r="C25" s="3">
-        <v>309.0612166280215</v>
+        <v>14.805590768794371</v>
       </c>
       <c r="D25" s="3">
-        <v>68.973555644417473</v>
+        <v>4.8639357310845828</v>
       </c>
       <c r="E25" s="3">
-        <v>27.18730070896499</v>
+        <v>2.945717542927258</v>
       </c>
       <c r="F25" s="3">
-        <v>11.52651357751764</v>
+        <v>2.6916643144493602</v>
       </c>
       <c r="G25">
-        <v>2240.6083636742101</v>
+        <v>101.89740936098271</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1417,23 +1417,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>32.452048212678307</v>
-      </c>
-      <c r="C26" s="4">
-        <v>68.482876607106107</v>
-      </c>
-      <c r="D26" s="4">
-        <v>15.395089877015391</v>
-      </c>
-      <c r="E26" s="4">
-        <v>7.3219619750343092</v>
-      </c>
-      <c r="F26" s="4">
-        <v>12.40338646826083</v>
+      <c r="B26" s="3">
+        <v>132.69879042232861</v>
+      </c>
+      <c r="C26" s="3">
+        <v>13.725287902690591</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3.8895867629498579</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.2418838752109429</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3.950758365545135</v>
       </c>
       <c r="G26">
-        <v>136.0553631400949</v>
+        <v>157.5063073287252</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1442,10 +1442,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1455,23 +1455,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>57.689738980107478</v>
-      </c>
-      <c r="C27" s="4">
-        <v>121.19912357942491</v>
-      </c>
-      <c r="D27" s="4">
-        <v>8.9588634853399611</v>
-      </c>
-      <c r="E27" s="4">
-        <v>11.524666583819061</v>
-      </c>
-      <c r="F27" s="4">
-        <v>15.200193450373799</v>
+      <c r="B27" s="3">
+        <v>69.782500364035386</v>
+      </c>
+      <c r="C27" s="3">
+        <v>34.367511524734297</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.4807686910452111</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.981053323340868</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4.6992684097579174</v>
       </c>
       <c r="G27">
-        <v>214.57258607906519</v>
+        <v>116.3111023129137</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1493,23 +1493,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>79.67316705498196</v>
-      </c>
-      <c r="C28" s="4">
-        <v>115.4022631508663</v>
-      </c>
-      <c r="D28" s="4">
-        <v>8.1958046045361428</v>
-      </c>
-      <c r="E28" s="4">
-        <v>8.9891551959992171</v>
-      </c>
-      <c r="F28" s="4">
-        <v>16.081807763586109</v>
+      <c r="B28" s="3">
+        <v>407.3207073862323</v>
+      </c>
+      <c r="C28" s="3">
+        <v>106.1640686322181</v>
+      </c>
+      <c r="D28" s="3">
+        <v>10.81116850528789</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.1882162476233624</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.7452092700618564</v>
       </c>
       <c r="G28">
-        <v>228.34219776996969</v>
+        <v>533.22937004142364</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>11</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1532,22 +1532,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>100.18501442996219</v>
+        <v>175.724132283806</v>
       </c>
       <c r="C29" s="3">
-        <v>21.91386177866309</v>
+        <v>54.06656535872861</v>
       </c>
       <c r="D29" s="3">
-        <v>24.55708491987734</v>
+        <v>8.3416617152365085</v>
       </c>
       <c r="E29" s="3">
-        <v>16.761505289702988</v>
+        <v>6.4208251678317367</v>
       </c>
       <c r="F29" s="3">
-        <v>16.212992576162051</v>
+        <v>5.6888551258791882</v>
       </c>
       <c r="G29">
-        <v>179.63045899436759</v>
+        <v>250.242039651482</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1570,22 +1570,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>181.30434253126819</v>
+        <v>348.80930506818783</v>
       </c>
       <c r="C30" s="3">
-        <v>42.876853177581147</v>
+        <v>139.19695523156301</v>
       </c>
       <c r="D30" s="3">
-        <v>12.625095049215449</v>
+        <v>25.18532890894457</v>
       </c>
       <c r="E30" s="3">
-        <v>15.593425675869961</v>
+        <v>6.6596311897041218</v>
       </c>
       <c r="F30" s="3">
-        <v>18.433495190328308</v>
+        <v>6.117400537973432</v>
       </c>
       <c r="G30">
-        <v>270.83321162426307</v>
+        <v>525.96862093637287</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1607,23 +1607,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>159.40822531329979</v>
-      </c>
-      <c r="C31" s="4">
-        <v>77.154702877833969</v>
-      </c>
-      <c r="D31" s="4">
-        <v>18.221654473439472</v>
-      </c>
-      <c r="E31" s="4">
-        <v>12.47355442863728</v>
-      </c>
-      <c r="F31" s="4">
-        <v>18.513648531535392</v>
+      <c r="B31" s="3">
+        <v>29.37944880111457</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.7780742876675397</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5.3717826737269778</v>
+      </c>
+      <c r="E31" s="3">
+        <v>6.6708893390648569</v>
+      </c>
+      <c r="F31" s="3">
+        <v>9.1901119562367271</v>
       </c>
       <c r="G31">
-        <v>285.77178562474592</v>
+        <v>60.390307057810681</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1632,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>19</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1646,22 +1646,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>54.812605752362742</v>
+        <v>144.85666601340279</v>
       </c>
       <c r="C32" s="3">
-        <v>15.25256908915734</v>
+        <v>39.683677209039978</v>
       </c>
       <c r="D32" s="3">
-        <v>6.5564807692158542</v>
+        <v>17.464195707213641</v>
       </c>
       <c r="E32" s="3">
-        <v>13.079958998998061</v>
+        <v>15.417820806864979</v>
       </c>
       <c r="F32" s="3">
-        <v>21.19556170308109</v>
+        <v>9.464870020677191</v>
       </c>
       <c r="G32">
-        <v>110.89717631281511</v>
+        <v>226.88722975719861</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1683,23 +1683,23 @@
       <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="4">
-        <v>62.755461224925348</v>
-      </c>
-      <c r="C33" s="4">
-        <v>33.563316937665427</v>
-      </c>
-      <c r="D33" s="4">
-        <v>16.0328120658315</v>
-      </c>
-      <c r="E33" s="4">
-        <v>15.76197093200631</v>
-      </c>
-      <c r="F33" s="4">
-        <v>25.166954931972061</v>
+      <c r="B33" s="3">
+        <v>723.68132135803671</v>
+      </c>
+      <c r="C33" s="3">
+        <v>133.83411637174831</v>
+      </c>
+      <c r="D33" s="3">
+        <v>12.89155959926366</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10.78545995805105</v>
+      </c>
+      <c r="F33" s="3">
+        <v>9.4752244419060219</v>
       </c>
       <c r="G33">
-        <v>153.2805160924006</v>
+        <v>890.66768172900584</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>18</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1722,22 +1722,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>971.05800576877959</v>
+        <v>1823.859777115289</v>
       </c>
       <c r="C34" s="3">
-        <v>159.28447870794031</v>
+        <v>309.0612166280215</v>
       </c>
       <c r="D34" s="3">
-        <v>23.172279016337551</v>
+        <v>68.973555644417473</v>
       </c>
       <c r="E34" s="3">
-        <v>18.88557912570041</v>
+        <v>27.18730070896499</v>
       </c>
       <c r="F34" s="3">
-        <v>26.87972925036604</v>
+        <v>11.52651357751764</v>
       </c>
       <c r="G34">
-        <v>1199.280071869124</v>
+        <v>2240.6083636742101</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1760,22 +1760,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>113.6964236619108</v>
+        <v>100.18501442996219</v>
       </c>
       <c r="C35" s="3">
-        <v>24.643859273686179</v>
+        <v>21.91386177866309</v>
       </c>
       <c r="D35" s="3">
-        <v>20.594462791027901</v>
+        <v>24.55708491987734</v>
       </c>
       <c r="E35" s="3">
-        <v>24.227579460357578</v>
+        <v>16.761505289702988</v>
       </c>
       <c r="F35" s="3">
-        <v>29.265903511103769</v>
+        <v>16.212992576162051</v>
       </c>
       <c r="G35">
-        <v>212.4282286980862</v>
+        <v>179.63045899436759</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1798,22 +1798,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>805.66479751665986</v>
+        <v>181.30434253126819</v>
       </c>
       <c r="C36" s="3">
-        <v>157.60267651152191</v>
+        <v>42.876853177581147</v>
       </c>
       <c r="D36" s="3">
-        <v>53.469507730623327</v>
+        <v>12.625095049215449</v>
       </c>
       <c r="E36" s="3">
-        <v>27.54029989464496</v>
+        <v>15.593425675869961</v>
       </c>
       <c r="F36" s="3">
-        <v>31.35446918224666</v>
+        <v>18.433495190328308</v>
       </c>
       <c r="G36">
-        <v>1075.631750835696</v>
+        <v>270.83321162426307</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1835,23 +1835,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>42.03770249531825</v>
-      </c>
-      <c r="C37" s="4">
-        <v>100.7005666510161</v>
-      </c>
-      <c r="D37" s="4">
-        <v>17.894691803479891</v>
-      </c>
-      <c r="E37" s="4">
-        <v>16.793008883399111</v>
-      </c>
-      <c r="F37" s="4">
-        <v>35.815288929550441</v>
+      <c r="B37" s="3">
+        <v>54.812605752362742</v>
+      </c>
+      <c r="C37" s="3">
+        <v>15.25256908915734</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6.5564807692158542</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13.079958998998061</v>
+      </c>
+      <c r="F37" s="3">
+        <v>21.19556170308109</v>
       </c>
       <c r="G37">
-        <v>213.24125876276381</v>
+        <v>110.89717631281511</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>23</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
@@ -1874,22 +1874,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>9831.6995947508731</v>
+        <v>971.05800576877959</v>
       </c>
       <c r="C38" s="3">
-        <v>992.84855747060749</v>
+        <v>159.28447870794031</v>
       </c>
       <c r="D38" s="3">
-        <v>70.477003385920085</v>
+        <v>23.172279016337551</v>
       </c>
       <c r="E38" s="3">
-        <v>20.136781666917859</v>
+        <v>18.88557912570041</v>
       </c>
       <c r="F38" s="3">
-        <v>37.014797958782196</v>
+        <v>26.87972925036604</v>
       </c>
       <c r="G38">
-        <v>10952.176735233101</v>
+        <v>1199.280071869124</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1911,23 +1911,23 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="4">
-        <v>20.343298016657979</v>
-      </c>
-      <c r="C39" s="4">
-        <v>92.321174849650873</v>
-      </c>
-      <c r="D39" s="4">
-        <v>10.932923301311449</v>
-      </c>
-      <c r="E39" s="4">
-        <v>17.86516688425387</v>
-      </c>
-      <c r="F39" s="4">
-        <v>52.138818393339371</v>
+      <c r="B39" s="3">
+        <v>113.6964236619108</v>
+      </c>
+      <c r="C39" s="3">
+        <v>24.643859273686179</v>
+      </c>
+      <c r="D39" s="3">
+        <v>20.594462791027901</v>
+      </c>
+      <c r="E39" s="3">
+        <v>24.227579460357578</v>
+      </c>
+      <c r="F39" s="3">
+        <v>29.265903511103769</v>
       </c>
       <c r="G39">
-        <v>193.6013814452136</v>
+        <v>212.4282286980862</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
@@ -1950,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B40" s="3">
-        <v>100.46849488490589</v>
+        <v>805.66479751665986</v>
       </c>
       <c r="C40" s="3">
-        <v>42.245063065341988</v>
+        <v>157.60267651152191</v>
       </c>
       <c r="D40" s="3">
-        <v>34.384074146254463</v>
+        <v>53.469507730623327</v>
       </c>
       <c r="E40" s="3">
-        <v>56.563383046009221</v>
+        <v>27.54029989464496</v>
       </c>
       <c r="F40" s="3">
-        <v>68.144018649266542</v>
+        <v>31.35446918224666</v>
       </c>
       <c r="G40">
-        <v>301.80503379177821</v>
+        <v>1075.631750835696</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K40" s="3">
         <v>1</v>
@@ -1988,22 +1988,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>386.00604235031312</v>
+        <v>9831.6995947508731</v>
       </c>
       <c r="C41" s="3">
-        <v>120.355341676368</v>
+        <v>992.84855747060749</v>
       </c>
       <c r="D41" s="3">
-        <v>28.020085493398319</v>
+        <v>70.477003385920085</v>
       </c>
       <c r="E41" s="3">
-        <v>45.498702243123809</v>
+        <v>20.136781666917859</v>
       </c>
       <c r="F41" s="3">
-        <v>73.771505786009016</v>
+        <v>37.014797958782196</v>
       </c>
       <c r="G41">
-        <v>653.6516775492122</v>
+        <v>10952.176735233101</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2025,23 +2025,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>1673.2955500138751</v>
-      </c>
-      <c r="C42" s="4">
-        <v>158.4727096999182</v>
-      </c>
-      <c r="D42" s="4">
-        <v>210.7250693911748</v>
-      </c>
-      <c r="E42" s="4">
-        <v>107.1680604997597</v>
-      </c>
-      <c r="F42" s="4">
-        <v>78.294785196541582</v>
+      <c r="B42" s="3">
+        <v>100.46849488490589</v>
+      </c>
+      <c r="C42" s="3">
+        <v>42.245063065341988</v>
+      </c>
+      <c r="D42" s="3">
+        <v>34.384074146254463</v>
+      </c>
+      <c r="E42" s="3">
+        <v>56.563383046009221</v>
+      </c>
+      <c r="F42" s="3">
+        <v>68.144018649266542</v>
       </c>
       <c r="G42">
-        <v>2227.9561748012688</v>
+        <v>301.80503379177821</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>15</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2064,22 +2064,22 @@
         <v>9</v>
       </c>
       <c r="B43" s="3">
-        <v>831.61413865462828</v>
+        <v>386.00604235031312</v>
       </c>
       <c r="C43" s="3">
-        <v>259.33890359284231</v>
+        <v>120.355341676368</v>
       </c>
       <c r="D43" s="3">
-        <v>167.44493283835101</v>
+        <v>28.020085493398319</v>
       </c>
       <c r="E43" s="3">
-        <v>94.383225491211945</v>
+        <v>45.498702243123809</v>
       </c>
       <c r="F43" s="3">
-        <v>91.621104693331191</v>
+        <v>73.771505786009016</v>
       </c>
       <c r="G43">
-        <v>1444.402305270364</v>
+        <v>653.6516775492122</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>1</v>
@@ -2102,22 +2102,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>1497.272135568157</v>
+        <v>831.61413865462828</v>
       </c>
       <c r="C44" s="3">
-        <v>370.76669688405377</v>
+        <v>259.33890359284231</v>
       </c>
       <c r="D44" s="3">
-        <v>162.21057399402281</v>
+        <v>167.44493283835101</v>
       </c>
       <c r="E44" s="3">
-        <v>130.27821977947761</v>
+        <v>94.383225491211945</v>
       </c>
       <c r="F44" s="3">
-        <v>127.5798158952047</v>
+        <v>91.621104693331191</v>
       </c>
       <c r="G44">
-        <v>2288.107442120915</v>
+        <v>1444.402305270364</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2140,22 +2140,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>1766.004835228975</v>
+        <v>1497.272135568157</v>
       </c>
       <c r="C45" s="3">
-        <v>664.49098923540896</v>
+        <v>370.76669688405377</v>
       </c>
       <c r="D45" s="3">
-        <v>372.15247224642178</v>
+        <v>162.21057399402281</v>
       </c>
       <c r="E45" s="3">
-        <v>282.25850004034191</v>
+        <v>130.27821977947761</v>
       </c>
       <c r="F45" s="3">
-        <v>285.86714121338912</v>
+        <v>127.5798158952047</v>
       </c>
       <c r="G45">
-        <v>3370.7739379645382</v>
+        <v>2288.107442120915</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2177,23 +2177,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>5577.5826234258602</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1211.8704362071101</v>
-      </c>
-      <c r="D46" s="4">
-        <v>533.52389198128208</v>
-      </c>
-      <c r="E46" s="4">
-        <v>484.95053807455372</v>
-      </c>
-      <c r="F46" s="4">
-        <v>291.70501162239952</v>
+      <c r="B46" s="3">
+        <v>1766.004835228975</v>
+      </c>
+      <c r="C46" s="3">
+        <v>664.49098923540896</v>
+      </c>
+      <c r="D46" s="3">
+        <v>372.15247224642178</v>
+      </c>
+      <c r="E46" s="3">
+        <v>282.25850004034191</v>
+      </c>
+      <c r="F46" s="3">
+        <v>285.86714121338912</v>
       </c>
       <c r="G46">
-        <v>8099.6325013112046</v>
+        <v>3370.7739379645382</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2202,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>24</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2364,8 +2364,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
